--- a/Academic Standings IDs.xlsx
+++ b/Academic Standings IDs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bashir102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{010C47F0-0FAE-4DED-8ABC-C0D97B0C71AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661E68F5-EC8C-4EF3-B3E8-361FDF2EB669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{99762EB1-B92D-4CB0-A2CF-79EC8505AEB7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -36,12 +36,6 @@
     <t>AcademicStanding</t>
   </si>
   <si>
-    <t xml:space="preserve">1ST PROBATION  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2ND PROBATION  </t>
-  </si>
-  <si>
     <t xml:space="preserve">COMMENTS AFTER GRADE - I  </t>
   </si>
   <si>
@@ -51,15 +45,6 @@
     <t>ENROLLMENT SUSPENSION</t>
   </si>
   <si>
-    <t xml:space="preserve">G.A.ST  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPROVE CGPA  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RE - ADMISSION  </t>
-  </si>
-  <si>
     <t>CONDITIONALLY PROMOTED</t>
   </si>
   <si>
@@ -148,13 +133,28 @@
   </si>
   <si>
     <t>FREEZE G.A.ST</t>
+  </si>
+  <si>
+    <t>G.A.ST</t>
+  </si>
+  <si>
+    <t>1ST PROBATION</t>
+  </si>
+  <si>
+    <t>2ND PROBATION</t>
+  </si>
+  <si>
+    <t>IMPROVE CGPA</t>
+  </si>
+  <si>
+    <t>RE - ADMISSION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +170,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -206,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,8 +228,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6359A514-E82F-4761-B34B-DAA9977AE94D}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,9 +559,12 @@
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -554,8 +574,11 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -563,10 +586,20 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="7" t="str">
+        <f>IF(C2=E2,"MATCHED","")</f>
+        <v>MATCHED</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -574,10 +607,20 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>IF(C3=E3,"MATCHED","")</f>
+        <v>MATCHED</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -585,10 +628,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -596,10 +642,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -607,10 +656,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -618,10 +670,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f>IF(C7=E7,"MATCHED","")</f>
+        <v>MATCHED</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -629,10 +691,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f>IF(C8=E8,"MATCHED","")</f>
+        <v>MATCHED</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -640,10 +712,20 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f>IF(C9=E9,"MATCHED","")</f>
+        <v>MATCHED</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -651,10 +733,13 @@
         <v>1.7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -662,10 +747,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -673,10 +761,13 @@
         <v>1.7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -684,10 +775,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -695,10 +789,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>16</v>
       </c>
@@ -706,10 +803,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -717,10 +817,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>18</v>
       </c>
@@ -728,10 +831,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>19</v>
       </c>
@@ -739,10 +845,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>20</v>
       </c>
@@ -750,10 +859,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>21</v>
       </c>
@@ -761,10 +873,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>22</v>
       </c>
@@ -772,10 +887,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>23</v>
       </c>
@@ -783,10 +901,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>24</v>
       </c>
@@ -794,10 +915,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>25</v>
       </c>
@@ -805,10 +929,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>26</v>
       </c>
@@ -816,10 +943,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>27</v>
       </c>
@@ -827,10 +957,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>28</v>
       </c>
@@ -838,10 +971,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>29</v>
       </c>
@@ -849,10 +985,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>30</v>
       </c>
@@ -860,10 +999,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>31</v>
       </c>
@@ -871,10 +1013,13 @@
         <v>1.7</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>32</v>
       </c>
@@ -882,10 +1027,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>33</v>
       </c>
@@ -893,10 +1041,13 @@
         <v>1.7</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>34</v>
       </c>
@@ -904,10 +1055,13 @@
         <v>3</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>35</v>
       </c>
@@ -915,10 +1069,13 @@
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>36</v>
       </c>
@@ -926,10 +1083,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>37</v>
       </c>
@@ -937,10 +1097,13 @@
         <v>3</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>38</v>
       </c>
@@ -948,10 +1111,13 @@
         <v>3</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>39</v>
       </c>
@@ -959,10 +1125,13 @@
         <v>3</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>40</v>
       </c>
@@ -970,6 +1139,9 @@
         <v>3</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="2">
         <v>40</v>
       </c>
     </row>
